--- a/results/excel/Results.xlsx
+++ b/results/excel/Results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -24,6 +24,12 @@
   </si>
   <si>
     <t xml:space="preserve">DI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DICV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI4</t>
   </si>
   <si>
     <t xml:space="preserve">DILASSO</t>
@@ -36,6 +42,12 @@
   </si>
   <si>
     <t xml:space="preserve">gLASSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARIDGE</t>
   </si>
 </sst>
 </file>
@@ -389,6 +401,18 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -401,16 +425,28 @@
         <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -424,15 +460,27 @@
         <v>#N/A</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -441,22 +489,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="e">
         <v>#N/A</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -464,21 +524,33 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E5" t="e">
         <v>#N/A</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9</v>
+      </c>
+      <c r="K5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -487,21 +559,33 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
         <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F6" t="e">
         <v>#N/A</v>
       </c>
       <c r="G6" t="n">
+        <v>9</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -510,21 +594,173 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>10</v>
+      </c>
+      <c r="J10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13</v>
+      </c>
+      <c r="E11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -564,6 +800,18 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -573,19 +821,31 @@
         <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -593,22 +853,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="e">
         <v>#N/A</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -616,22 +888,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="e">
         <v>#N/A</v>
       </c>
       <c r="E4" t="n">
+        <v>18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11</v>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9</v>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11</v>
+      </c>
+      <c r="K4" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -639,21 +923,33 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E5" t="e">
         <v>#N/A</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -662,22 +958,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
         <v>16</v>
       </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" t="n">
-        <v>8</v>
-      </c>
       <c r="F6" t="e">
         <v>#N/A</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -685,21 +993,173 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" t="n">
         <v>17</v>
       </c>
-      <c r="C7" t="n">
-        <v>19</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>11</v>
-      </c>
-      <c r="G7" t="e">
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>14</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>17</v>
+      </c>
+      <c r="D11" t="n">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -739,6 +1199,18 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -748,19 +1220,31 @@
         <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -768,13 +1252,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="e">
         <v>#N/A</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -783,7 +1267,19 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -791,22 +1287,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="e">
         <v>#N/A</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -814,22 +1322,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" t="e">
         <v>#N/A</v>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -837,22 +1357,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F6" t="e">
         <v>#N/A</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -860,21 +1392,173 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" t="n">
         <v>16</v>
       </c>
-      <c r="C7" t="n">
-        <v>18</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4</v>
-      </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>17</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>19</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>16</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="e">
         <v>#N/A</v>
       </c>
     </row>
@@ -914,6 +1598,18 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -923,19 +1619,31 @@
         <v>#N/A</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -943,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="e">
         <v>#N/A</v>
@@ -952,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -960,13 +1668,25 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
         <v>20</v>
@@ -975,13 +1695,25 @@
         <v>#N/A</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -989,22 +1721,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" t="e">
         <v>#N/A</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1012,22 +1756,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
         <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F6" t="e">
         <v>#N/A</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1035,21 +1791,173 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19</v>
+      </c>
+      <c r="E8" t="n">
+        <v>18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7</v>
+      </c>
+      <c r="H8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>17</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>19</v>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19</v>
+      </c>
+      <c r="E10" t="n">
+        <v>17</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18</v>
+      </c>
+      <c r="E11" t="n">
+        <v>18</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="e">
         <v>#N/A</v>
       </c>
     </row>
